--- a/results/correct models/R19-airport/compositions_contradiction_check.xlsx
+++ b/results/correct models/R19-airport/compositions_contradiction_check.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\semantic-alignment-detection\results\correct models\R19-airport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC7ABA-8665-48E9-9949-D759279E1613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>actual_description</t>
+  </si>
+  <si>
+    <t>generated_description</t>
+  </si>
+  <si>
+    <t>A plane is assigned to a flight containing a set of numbered seats.</t>
+  </si>
+  <si>
+    <t>Each plane is made up of seat</t>
+  </si>
+  <si>
+    <t>llm response</t>
+  </si>
+  <si>
+    <t>From the analysis of Statement 2, it can be inferred that a plane is assigned to a flight and this plane contains a set of numbered seats. However, this statement does not specify exclusively whether the plane is made up from these seats. It hints that seats are a significant part of a plane, but it doesn't confirm if they are the only components.
+Nonetheless, the first statement indicates that "Each plane is made up of seat". Assuming that both these statements are from the same domain and context, one could conclude that a plane is made up of seats looking at the two statements together. 
+Yet, if we only consider the second statement alone, it does not provide enough details to confirm whether a plane is composed solely of seats.
+Conclusion: Not Sure</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,161 +405,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>actual_description</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>generated_description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements contradict each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements mutually exclusive? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements clash or conflict with each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements at odds with each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements negate each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements inconsistent? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements oppose each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements in disagreement? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements incompatible? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements present conflicting viewpoints? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A plane is assigned to a flight containing a set of numbered seats.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Each plane is made up of seat</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No, these statements do not contradict each other. They both concern the presence of seats in an airplane. The first statement asserts that planes are made up of seats, while the second statement provides further detail by stating that these seats are numbered and the plane is assigned to a flight.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>No, these statements are not mutually exclusive. They can both be true at the same time. A plane can be made up of seats and also be assigned to a flight containing a set of numbered seats. They actually complement each other rather than contradict each other.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>No, these statements do not clash or conflict with each other. They are both statements about features of airplanes - one asserting that planes contain seats, and the other stating that these seats are numbered and the plane is assigned to a flight.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No, these two statements are not at odds with each other. The first statement establishes that planes are made up of seats, and the second statement explains a particular practice about how planes and their seats are assigned to flights. They are providing information on two different but related aspects of planes and their seats.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No, these statements do not negate each other. Both statements indicate that a plane contains seats. The second statement simply adds that the seats are numbered and assigned to a specific flight.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>No, these statements are not inconsistent. Both are describing different aspects of how seats are organized within a plane. The first statement suggests that a plane is composed of multiple seats, while the second statement specifies that these seats are numbered and assigned for specific flights.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>No, these statements do not oppose each other. Both statements discuss the fact that planes have seats.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No, these statements are not in disagreement. They are both referring to the composition of a plane in terms of its seating. The first statement mentions that each plane contains seats, and the second statement goes into more detail, explaining that a plane is assigned to a flight based on a set of numbered seats.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No, these statements are not incompatible. They both reference elements of an aircraft (the seats). The first statement suggests the physical makeup of a plane includes seats, and the second one indicates that the plane is used for flights and that these seats are numbered. There is no contradiction between these two statements.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No, these statements do not present conflicting viewpoints. Both statements discuss the composition of a plane concerning seats. Although they address slightly different specifics, they are not in conflict with each other.</t>
-        </is>
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
